--- a/MC_data_Aldebaran.xlsx
+++ b/MC_data_Aldebaran.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajbeck\Dropbox\Work GEOMAR\03_Projects\01_MC_sampling_others\2021_Jens_Aldeberan_students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marek/Documents/GitHub/meer_praktikum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF363B2D-82A5-4E75-AD87-8A091D6E86A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD2C1D-E5E8-C641-B673-FF9B0C34AF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{A8E282B2-BF5C-473B-BEAD-C481B75FF9C2}"/>
+    <workbookView xWindow="3060" yWindow="3640" windowWidth="23160" windowHeight="14560" xr2:uid="{A8E282B2-BF5C-473B-BEAD-C481B75FF9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,15 +252,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,22 +575,22 @@
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
       <c r="D2" s="9" t="s">
         <v>14</v>
@@ -617,7 +617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
@@ -646,7 +646,7 @@
         <v>73171730.529633924</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -675,7 +675,7 @@
         <v>19017.063850181064</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -704,7 +704,7 @@
         <v>19275.464811424892</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1.0273682502850213E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
@@ -762,7 +762,7 @@
         <v>3.3903152259405702E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="14" t="s">
         <v>28</v>
       </c>
@@ -775,22 +775,22 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -825,7 +825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -860,7 +860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -895,7 +895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -930,7 +930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1070,77 +1070,77 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>3233</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
@@ -1175,12 +1175,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1190,5 +1190,6 @@
     <mergeCell ref="D10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>